--- a/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
+++ b/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T20:14:33+00:00</t>
+    <t>2024-05-16T21:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
+++ b/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T21:49:21+00:00</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
+++ b/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot-2</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-19T17:31:05+00:00</t>
+    <t>2024-12-18T12:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
+++ b/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ChEhealthCodesystemPqdMoreAttriburesRequested</t>
+    <t>ChEhealthCodesystemPqdMoreAttributesRequested</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T12:16:22+00:00</t>
+    <t>2025-05-22T13:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>eHealth Suisse (https://www.e-health-suisse.ch)</t>
+  </si>
+  <si>
+    <t>eHealth Suisse (https://www.e-health-suisse.ch(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -275,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -367,47 +370,49 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
@@ -431,22 +436,28 @@
       <c r="A20" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>34</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>37</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -464,27 +475,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
     </row>

--- a/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
+++ b/ig/ch-epr-fhir/CodeSystem-2.16.756.5.30.1.127.3.10.17.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
